--- a/biology/Mycologie/Anders_Sandøe_Ørsted_(botaniste)/Anders_Sandøe_Ørsted_(botaniste).xlsx
+++ b/biology/Mycologie/Anders_Sandøe_Ørsted_(botaniste)/Anders_Sandøe_Ørsted_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anders_Sand%C3%B8e_%C3%98rsted_(botaniste)</t>
+          <t>Anders_Sandøe_Ørsted_(botaniste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anders Sandøe Ørsted (ou Anders Sandø Ørsted ou Anders Sandö Örsted) est un botaniste danois, né le 21 juin 1816 et mort le 3 septembre 1872.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anders_Sand%C3%B8e_%C3%98rsted_(botaniste)</t>
+          <t>Anders_Sandøe_Ørsted_(botaniste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le neveu de l’homme politique et juriste Anders Sandøe Ørsted (1778-1860) et du physicien Hans Christian Ørsted (1777-1851). Il voyage beaucoup en Amérique centrale entre 1845 et 1848 et devient, en 1851, professeur de botanique à l’université de Copenhague, fonction qu’il occupe jusqu’en 1862.
-Il fait paraître de nombreuses publications sur les familles de plantes Acanthaceae et Fagaceae. L’une de ses publications les plus connues est L’Américan centrale[1].
+Il fait paraître de nombreuses publications sur les familles de plantes Acanthaceae et Fagaceae. L’une de ses publications les plus connues est L’Américan centrale.
 Le genre d’orchidée Oerstedella lui a été dédiée par Heinrich Gustav Reichenbach (1823-1889).
 Il fut président de l'Académie royale danoise des sciences et des lettres de 1848 à 1860.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anders_Sand%C3%B8e_%C3%98rsted_(botaniste)</t>
+          <t>Anders_Sandøe_Ørsted_(botaniste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Anders Sandøe Ørsted (botanist) » (voir la liste des auteurs) (version du 11 juin 2007).</t>
         </is>
